--- a/实训项目监管系统_PO设计.xlsx
+++ b/实训项目监管系统_PO设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="154">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>--班级信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>班级id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -431,26 +427,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TgroupMember</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>--小组成员信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>groupID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>所属小组ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>小组ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -504,14 +484,6 @@
   </si>
   <si>
     <t>角色说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组员id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -633,6 +605,35 @@
   <si>
     <t>Tuser增添status字段
 增添TuserInfo表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/11/16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>--班级信息 状态同上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未无主键表增添自增主键id
+增添Tclass的status字段</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1038,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1061,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1071,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,577 +1083,592 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>47</v>
+      <c r="A27" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="2" t="s">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="B39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>82</v>
+      <c r="E40" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="G44" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>113</v>
+      <c r="D52" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="B58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>117</v>
+      <c r="A59" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="G60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
